--- a/com.investing/src/test/resources/test_data.xlsx
+++ b/com.investing/src/test/resources/test_data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferdous/Desktop/Selenium Bootcamp/SeleniumBootcamp/com.investing/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D948D8-AB40-F24E-ACFA-3000F36CD110}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF2DF4A-F1C7-F24C-8F96-2363E0534902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="440" windowWidth="18680" windowHeight="16160" activeTab="1" xr2:uid="{4BEF52D4-F44A-F44C-BD5B-62C6E8F0EB27}"/>
+    <workbookView xWindow="1740" yWindow="600" windowWidth="23880" windowHeight="16140" xr2:uid="{4BEF52D4-F44A-F44C-BD5B-62C6E8F0EB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -65,13 +66,31 @@
   </si>
   <si>
     <t>Pivot Point Calculator</t>
+  </si>
+  <si>
+    <t>Forex</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>XAU</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>CAD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,6 +111,20 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -148,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -169,6 +202,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A34211D-C91E-B94D-99F4-2861B14045CA}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -535,22 +577,34 @@
     <row r="3" spans="1:5" ht="29">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>42567</v>
+      </c>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="29">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1">
+        <v>843668</v>
+      </c>
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="29">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8386856</v>
+      </c>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="29">
@@ -583,7 +637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F92A6D5-AFFD-3847-A5DB-F4F19C0401A7}">
   <dimension ref="B1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -672,4 +726,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DFDCCA2-41BD-3647-A56A-912B459F8C8F}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24">
+      <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31">
+      <c r="A2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" ht="31">
+      <c r="A3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+    </row>
+    <row r="4" spans="1:5" ht="31">
+      <c r="A4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" ht="31">
+      <c r="A5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="31">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" ht="31">
+      <c r="A7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" ht="31">
+      <c r="A8" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.investing/src/test/resources/test_data.xlsx
+++ b/com.investing/src/test/resources/test_data.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferdous/Desktop/Selenium Bootcamp/SeleniumBootcamp/com.investing/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF2DF4A-F1C7-F24C-8F96-2363E0534902}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F36BCB-DFA8-1446-A394-FC3EDF4299DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="600" windowWidth="23880" windowHeight="16140" xr2:uid="{4BEF52D4-F44A-F44C-BD5B-62C6E8F0EB27}"/>
+    <workbookView xWindow="1740" yWindow="520" windowWidth="23880" windowHeight="16140" activeTab="3" xr2:uid="{4BEF52D4-F44A-F44C-BD5B-62C6E8F0EB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -84,6 +85,12 @@
   </si>
   <si>
     <t>CAD</t>
+  </si>
+  <si>
+    <t>Dollar</t>
+  </si>
+  <si>
+    <t>JPY</t>
   </si>
 </sst>
 </file>
@@ -527,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A34211D-C91E-B94D-99F4-2861B14045CA}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -797,4 +804,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BE8B38-B839-EE45-8430-482C01B93D7A}">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.investing/src/test/resources/test_data.xlsx
+++ b/com.investing/src/test/resources/test_data.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferdous/Desktop/Selenium Bootcamp/SeleniumBootcamp/com.investing/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F36BCB-DFA8-1446-A394-FC3EDF4299DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95FF0FA-8C2B-7649-90FC-39415C1A99CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="520" windowWidth="23880" windowHeight="16140" activeTab="3" xr2:uid="{4BEF52D4-F44A-F44C-BD5B-62C6E8F0EB27}"/>
+    <workbookView xWindow="1740" yWindow="460" windowWidth="23880" windowHeight="16140" activeTab="4" xr2:uid="{4BEF52D4-F44A-F44C-BD5B-62C6E8F0EB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -91,13 +92,25 @@
   </si>
   <si>
     <t>JPY</t>
+  </si>
+  <si>
+    <t>khdfkjhs</t>
+  </si>
+  <si>
+    <t>lkjlakjaja</t>
+  </si>
+  <si>
+    <t>ferdousbusiness2022@gmail.com</t>
+  </si>
+  <si>
+    <t>ferdousbusiness2023@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -129,6 +142,20 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,10 +212,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,8 +246,12 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -535,7 +567,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -810,7 +842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60BE8B38-B839-EE45-8430-482C01B93D7A}">
   <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -829,4 +861,61 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63A62E26-3C8A-C147-8FE7-093D89CE8373}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1405E5D0-4BC4-9849-A9DD-16AB5ACBAB6B}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{D9DBA176-9B9E-1D40-8B35-C0FCCF943C97}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{7D7C72FE-BF9A-5D4C-8AC9-5531050FD95C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>